--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.111220-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Gautier.Fall.111220-2.xlsx_with_dialog_acts.xlsx
@@ -727,12 +727,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -769,12 +769,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -811,12 +811,12 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -895,12 +895,12 @@
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1105,12 +1105,12 @@
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1273,12 +1273,12 @@
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1315,12 +1315,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2239,12 +2239,12 @@
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2323,12 +2323,12 @@
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2659,12 +2659,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2785,12 +2785,12 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3919,12 +3919,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -4087,12 +4087,12 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5389,12 +5389,12 @@
       <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5641,12 +5641,12 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5725,12 +5725,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5977,12 +5977,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6019,12 +6019,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6145,12 +6145,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6313,12 +6313,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6733,12 +6733,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6775,12 +6775,12 @@
       <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6901,12 +6901,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7489,12 +7489,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8245,12 +8245,12 @@
       <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8371,12 +8371,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8539,12 +8539,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -8959,12 +8959,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9379,12 +9379,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10009,12 +10009,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10345,12 +10345,12 @@
       <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10639,12 +10639,12 @@
       <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11143,12 +11143,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -12109,12 +12109,12 @@
       <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12319,12 +12319,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12613,12 +12613,12 @@
       <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -12949,12 +12949,12 @@
       <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13075,12 +13075,12 @@
       <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -14419,12 +14419,12 @@
       <c r="H333" t="inlineStr"/>
       <c r="I333" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J333" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14587,12 +14587,12 @@
       <c r="H337" t="inlineStr"/>
       <c r="I337" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J337" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15049,12 +15049,12 @@
       <c r="H348" t="inlineStr"/>
       <c r="I348" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J348" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15469,12 +15469,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16225,12 +16225,12 @@
       <c r="H376" t="inlineStr"/>
       <c r="I376" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J376" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16603,12 +16603,12 @@
       <c r="H385" t="inlineStr"/>
       <c r="I385" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J385" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16687,12 +16687,12 @@
       <c r="H387" t="inlineStr"/>
       <c r="I387" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J387" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17021,12 +17021,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17357,12 +17357,12 @@
       <c r="H403" t="inlineStr"/>
       <c r="I403" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17441,12 +17441,12 @@
       <c r="H405" t="inlineStr"/>
       <c r="I405" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17693,12 +17693,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18659,12 +18659,12 @@
       <c r="H434" t="inlineStr"/>
       <c r="I434" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18869,12 +18869,12 @@
       <c r="H439" t="inlineStr"/>
       <c r="I439" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19163,12 +19163,12 @@
       <c r="H446" t="inlineStr"/>
       <c r="I446" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J446" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19247,12 +19247,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20003,12 +20003,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20255,12 +20255,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20339,12 +20339,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20591,12 +20591,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20633,12 +20633,12 @@
       <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J481" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20717,12 +20717,12 @@
       <c r="H483" t="inlineStr"/>
       <c r="I483" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21389,12 +21389,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21557,12 +21557,12 @@
       <c r="H503" t="inlineStr"/>
       <c r="I503" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J503" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -21809,12 +21809,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22523,12 +22523,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22901,12 +22901,12 @@
       <c r="H535" t="inlineStr"/>
       <c r="I535" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J535" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23909,12 +23909,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -24371,12 +24371,12 @@
       <c r="H570" t="inlineStr"/>
       <c r="I570" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J570" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25135,12 +25135,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25615,12 +25615,12 @@
       <c r="H601" t="inlineStr"/>
       <c r="I601" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J601" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -25695,12 +25695,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -25895,12 +25895,12 @@
       <c r="H608" t="inlineStr"/>
       <c r="I608" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26015,12 +26015,12 @@
       <c r="H611" t="inlineStr"/>
       <c r="I611" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -26295,12 +26295,12 @@
       <c r="H618" t="inlineStr"/>
       <c r="I618" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26415,12 +26415,12 @@
       <c r="H621" t="inlineStr"/>
       <c r="I621" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -26455,12 +26455,12 @@
       <c r="H622" t="inlineStr"/>
       <c r="I622" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -26615,12 +26615,12 @@
       <c r="H626" t="inlineStr"/>
       <c r="I626" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26815,12 +26815,12 @@
       <c r="H631" t="inlineStr"/>
       <c r="I631" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J631" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26935,12 +26935,12 @@
       <c r="H634" t="inlineStr"/>
       <c r="I634" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J634" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27095,12 +27095,12 @@
       <c r="H638" t="inlineStr"/>
       <c r="I638" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J638" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27255,12 +27255,12 @@
       <c r="H642" t="inlineStr"/>
       <c r="I642" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J642" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27615,12 +27615,12 @@
       <c r="H651" t="inlineStr"/>
       <c r="I651" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J651" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28655,12 +28655,12 @@
       <c r="H677" t="inlineStr"/>
       <c r="I677" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J677" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -28695,12 +28695,12 @@
       <c r="H678" t="inlineStr"/>
       <c r="I678" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J678" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -28775,12 +28775,12 @@
       <c r="H680" t="inlineStr"/>
       <c r="I680" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J680" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29015,12 +29015,12 @@
       <c r="H686" t="inlineStr"/>
       <c r="I686" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J686" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29055,12 +29055,12 @@
       <c r="H687" t="inlineStr"/>
       <c r="I687" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J687" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -29815,12 +29815,12 @@
       <c r="H706" t="inlineStr"/>
       <c r="I706" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30015,12 +30015,12 @@
       <c r="H711" t="inlineStr"/>
       <c r="I711" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J711" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -30415,12 +30415,12 @@
       <c r="H721" t="inlineStr"/>
       <c r="I721" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J721" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31255,12 +31255,12 @@
       <c r="H742" t="inlineStr"/>
       <c r="I742" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31415,12 +31415,12 @@
       <c r="H746" t="inlineStr"/>
       <c r="I746" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31535,12 +31535,12 @@
       <c r="H749" t="inlineStr"/>
       <c r="I749" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J749" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -31735,12 +31735,12 @@
       <c r="H754" t="inlineStr"/>
       <c r="I754" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J754" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31775,12 +31775,12 @@
       <c r="H755" t="inlineStr"/>
       <c r="I755" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J755" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31855,12 +31855,12 @@
       <c r="H757" t="inlineStr"/>
       <c r="I757" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J757" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32055,12 +32055,12 @@
       <c r="H762" t="inlineStr"/>
       <c r="I762" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J762" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -32615,12 +32615,12 @@
       <c r="H776" t="inlineStr"/>
       <c r="I776" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J776" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33175,12 +33175,12 @@
       <c r="H790" t="inlineStr"/>
       <c r="I790" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J790" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -33295,12 +33295,12 @@
       <c r="H793" t="inlineStr"/>
       <c r="I793" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J793" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -33775,12 +33775,12 @@
       <c r="H805" t="inlineStr"/>
       <c r="I805" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J805" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -33975,12 +33975,12 @@
       <c r="H810" t="inlineStr"/>
       <c r="I810" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -34095,12 +34095,12 @@
       <c r="H813" t="inlineStr"/>
       <c r="I813" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34135,12 +34135,12 @@
       <c r="H814" t="inlineStr"/>
       <c r="I814" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
